--- a/data/outputs/management_elsevier/88.xlsx
+++ b/data/outputs/management_elsevier/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84953334033</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2649</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84953322995</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>3325</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1381,6 +1403,12 @@
           <t>2-s2.0-84953268505</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>8598</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1604,6 +1632,12 @@
           <t>2-s2.0-84953235462</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>4564</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1823,6 +1857,12 @@
           <t>2-s2.0-84953313682</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>8863</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2042,6 +2082,12 @@
           <t>2-s2.0-84953316403</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>8509</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2260,6 +2306,12 @@
         <is>
           <t>2-s2.0-84940829173</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>5358</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2470,6 +2522,12 @@
           <t>2-s2.0-84940838813</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>5687</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2690,6 +2748,12 @@
         <is>
           <t>2-s2.0-84940838390</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>3442</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2902,6 +2966,12 @@
           <t>2-s2.0-84940831010</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>7054</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3129,6 +3199,12 @@
           <t>2-s2.0-84940866451</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>8609</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3348,6 +3424,12 @@
           <t>2-s2.0-84930981290</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>8281</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3572,6 +3654,12 @@
         <is>
           <t>2-s2.0-84930985555</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>5150</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -3782,6 +3870,12 @@
           <t>2-s2.0-84930972853</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3171</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3991,6 +4085,12 @@
           <t>2-s2.0-84930976251</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>5962</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4206,6 +4306,12 @@
           <t>2-s2.0-84927584891</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2176</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4415,6 +4521,12 @@
           <t>2-s2.0-84927626327</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3456</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4629,6 +4741,12 @@
         <is>
           <t>2-s2.0-84927585274</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4839,6 +4957,12 @@
           <t>2-s2.0-84927641102</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1994</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5066,6 +5190,12 @@
           <t>2-s2.0-84927595040</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2887</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
